--- a/template/Laporan Arsip Bulanan.xlsx
+++ b/template/Laporan Arsip Bulanan.xlsx
@@ -49,19 +49,19 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>A= 36</t>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>A= 108</t>
   </si>
   <si>
     <t>B= 0</t>
   </si>
   <si>
-    <t>C= 0</t>
-  </si>
-  <si>
-    <t>D= 21</t>
+    <t>C= 3</t>
+  </si>
+  <si>
+    <t>D= 27</t>
   </si>
   <si>
     <t>Jumlah</t>
@@ -741,16 +741,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>17373</v>
+        <v>7549</v>
       </c>
       <c r="D9" s="2">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="E9" s="2">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="F9" s="23">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>11</v>

--- a/template/Laporan Arsip Bulanan.xlsx
+++ b/template/Laporan Arsip Bulanan.xlsx
@@ -52,7 +52,7 @@
     <t>Oktober</t>
   </si>
   <si>
-    <t>A= 108</t>
+    <t>A= 74</t>
   </si>
   <si>
     <t>B= 0</t>
@@ -61,7 +61,7 @@
     <t>C= 3</t>
   </si>
   <si>
-    <t>D= 27</t>
+    <t>D= 33</t>
   </si>
   <si>
     <t>Jumlah</t>
@@ -741,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>7549</v>
+        <v>7581</v>
       </c>
       <c r="D9" s="2">
         <v>212</v>
